--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521848.8708903085</v>
+        <v>-523736.4524067103</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>161.6173916382319</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>119.3889776693541</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>125.3787979092682</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>123.6064608052459</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>318.7986688956009</v>
+        <v>89.74042216486141</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>242.8518231250252</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>91.88878909795807</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>26.65143843601241</v>
       </c>
       <c r="F8" t="n">
-        <v>118.4282600941813</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>12.84584032841726</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.51033041214308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70.43533402631046</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>74.81067239650318</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>54.06292240847332</v>
+        <v>97.57844865856686</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>152.6054364760464</v>
+        <v>103.9246012702011</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.5009259672065</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.0690667171631</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>109.0847947020407</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>137.2353514512486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>109.8144320947546</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>38.20552045454352</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>42.66059551718114</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3010,13 +3010,13 @@
         <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>141.233268634173</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.100961840373</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.100961840373</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1936.700801904495</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>601.483733793032</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>601.483733793032</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>601.483733793032</v>
       </c>
       <c r="U4" t="n">
-        <v>603.2739732920446</v>
+        <v>601.483733793032</v>
       </c>
       <c r="V4" t="n">
-        <v>603.2739732920446</v>
+        <v>601.483733793032</v>
       </c>
       <c r="W4" t="n">
-        <v>603.2739732920446</v>
+        <v>601.483733793032</v>
       </c>
       <c r="X4" t="n">
-        <v>603.2739732920446</v>
+        <v>601.483733793032</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.4137200851862</v>
+        <v>1233.480863147839</v>
       </c>
       <c r="C5" t="n">
-        <v>940.4137200851862</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="D5" t="n">
-        <v>940.4137200851862</v>
+        <v>864.5183462074269</v>
       </c>
       <c r="E5" t="n">
-        <v>940.4137200851862</v>
+        <v>478.7300936091827</v>
       </c>
       <c r="F5" t="n">
-        <v>529.4278152955787</v>
+        <v>471.7845928599792</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1327.013560149308</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6275373157412</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6275373157412</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.58524627281</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.58524627281</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="D8" t="n">
-        <v>977.3195476660596</v>
+        <v>505.7729355562421</v>
       </c>
       <c r="E8" t="n">
-        <v>591.5312950678153</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312744</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.185086336932</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2486.702312640364</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>2317.766129712457</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>2317.766129712457</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>2169.853036130064</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>2697.149091018223</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>2697.149091018223</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W10" t="n">
-        <v>2697.149091018223</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>2697.149091018223</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>2668.350777470604</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W13" t="n">
-        <v>954.814612315055</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="X13" t="n">
-        <v>879.2482765610114</v>
+        <v>558.0926555785011</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.2482765610114</v>
+        <v>337.300076434971</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,31 +5294,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,16 +5343,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
@@ -5361,19 +5361,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.3120936331044</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331044</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688058</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799351</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471178</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347407</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347407</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.521842813595</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W16" t="n">
-        <v>931.1046727766345</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X16" t="n">
-        <v>931.1046727766345</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.3120936331044</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.585046524006</v>
+        <v>502.7260840420531</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609666</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609666</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="W19" t="n">
-        <v>696.585046524006</v>
+        <v>1133.15667891384</v>
       </c>
       <c r="X19" t="n">
-        <v>696.585046524006</v>
+        <v>905.167128015823</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.585046524006</v>
+        <v>684.3745488722928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>2013.406634128705</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2497.969180129612</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402494</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1390.329476651633</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1190.409466567186</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>966.6240513566913</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687012</v>
+        <v>966.6240513566913</v>
       </c>
       <c r="V22" t="n">
-        <v>865.3534128817969</v>
+        <v>966.6240513566913</v>
       </c>
       <c r="W22" t="n">
-        <v>865.3534128817969</v>
+        <v>966.6240513566913</v>
       </c>
       <c r="X22" t="n">
-        <v>637.3638619837795</v>
+        <v>966.6240513566913</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.5712828402494</v>
+        <v>745.8314722131612</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>357.5203921878142</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>357.5203921878142</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>207.4037527754784</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>207.4037527754785</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>207.4037527754785</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>207.4037527754785</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>207.4037527754785</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1360.294703435429</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1071.166064648987</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="V25" t="n">
-        <v>1071.166064648987</v>
+        <v>874.9271131227922</v>
       </c>
       <c r="W25" t="n">
-        <v>781.7488946120263</v>
+        <v>585.5099430858315</v>
       </c>
       <c r="X25" t="n">
-        <v>781.7488946120263</v>
+        <v>357.5203921878142</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684962</v>
+        <v>357.5203921878142</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,7 +6215,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6224,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.8632439327646</v>
+        <v>527.1935825831089</v>
       </c>
       <c r="C28" t="n">
-        <v>565.9270610048577</v>
+        <v>358.257399655202</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>208.1407602428663</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>208.1407602428663</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>208.1407602428663</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028586</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1460.324835755333</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1460.324835755333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1460.324835755333</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.196196968891</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>916.5117087630043</v>
+        <v>755.1831334811262</v>
       </c>
       <c r="W28" t="n">
-        <v>916.5117087630043</v>
+        <v>755.1831334811262</v>
       </c>
       <c r="X28" t="n">
-        <v>916.5117087630043</v>
+        <v>527.1935825831089</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.5117087630043</v>
+        <v>527.1935825831089</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,43 +6467,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542181</v>
+        <v>750.8748194215254</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542181</v>
+        <v>637.6995017749894</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542181</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>347.3802016531957</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297805</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652464</v>
+        <v>1019.42228627764</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030871</v>
+        <v>876.7624189703945</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>929.5163332765953</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7181,40 +7181,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>231.9043177021518</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042117</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106759</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,10 +7564,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>360.5026862907258</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>104.8749102765759</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>306.1147370139963</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>28.12263706262929</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>360.5026862907248</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>171.2966883299252</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504478</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>171.2966883299254</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>8.406710013101247</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>32.92248665775548</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>94.13752431970539</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622849</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>109.3966461556268</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.898982992534</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>198.0747209153547</v>
+        <v>154.5591946652611</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>14.64138462258141</v>
+        <v>63.32221982842673</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>2.463426436586234</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>109.0685766066649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>1.33445076223127</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>84.3122096071406</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>56.67913636862298</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.75883194924928</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>47.55719587719307</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>22.1481280893648</v>
       </c>
     </row>
     <row r="32">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1214383.18109941</v>
+        <v>1214383.181099411</v>
       </c>
     </row>
     <row r="12">
@@ -26323,10 +26323,10 @@
         <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="G2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557398</v>
@@ -26335,22 +26335,22 @@
         <v>215065.9828557398</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="M2" t="n">
         <v>225786.4867126782</v>
       </c>
-      <c r="M2" t="n">
-        <v>225786.4867126781</v>
-      </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26427,28 +26427,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.2921356356</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603815.4288164986</v>
+        <v>-603815.4288164985</v>
       </c>
       <c r="C6" t="n">
-        <v>-13847.54960195412</v>
+        <v>-13847.54960195409</v>
       </c>
       <c r="D6" t="n">
-        <v>-13847.54960195407</v>
+        <v>-13847.54960195409</v>
       </c>
       <c r="E6" t="n">
-        <v>-417127.0491913118</v>
+        <v>-417224.5083172841</v>
       </c>
       <c r="F6" t="n">
-        <v>108032.9872855842</v>
+        <v>107935.5281596119</v>
       </c>
       <c r="G6" t="n">
-        <v>108032.9872855839</v>
+        <v>107935.5281596121</v>
       </c>
       <c r="H6" t="n">
-        <v>108032.9872855843</v>
+        <v>107935.5281596116</v>
       </c>
       <c r="I6" t="n">
-        <v>108032.9872855841</v>
+        <v>107935.5281596119</v>
       </c>
       <c r="J6" t="n">
-        <v>-68390.23190700886</v>
+        <v>-68487.69103298096</v>
       </c>
       <c r="K6" t="n">
-        <v>49751.06957119456</v>
+        <v>49732.57583326024</v>
       </c>
       <c r="L6" t="n">
-        <v>80264.01722902627</v>
+        <v>80264.01722902623</v>
       </c>
       <c r="M6" t="n">
-        <v>-44194.09120394394</v>
+        <v>-44194.09120394396</v>
       </c>
       <c r="N6" t="n">
-        <v>90606.92402989318</v>
+        <v>90606.92402989308</v>
       </c>
       <c r="O6" t="n">
-        <v>90606.92402989311</v>
+        <v>90606.92402989304</v>
       </c>
       <c r="P6" t="n">
         <v>46444.31872704752</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108362</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>203.6555001327757</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.8489609866995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>21.28639407088968</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>162.6754134367318</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>94.98550112519411</v>
+        <v>324.0437478559336</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>9.285820198802753</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>133.8208662910791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>355.2789316362494</v>
       </c>
       <c r="F8" t="n">
-        <v>288.4477856475301</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>239.2918029954107</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.0743229399517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>609.76039124675</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299091</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>387.2386125176839</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700205</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>116.1356698477035</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>693.6972596887377</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>481.7210653803916</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109047</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>453.6603905710336</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>257.6644149691256</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988637</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>136.0477032746121</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160968</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
